--- a/results/logistic/dilemma/confidence/0.1/avg_scores.xlsx
+++ b/results/logistic/dilemma/confidence/0.1/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="219">
   <si>
     <t>negative</t>
   </si>
@@ -43,13 +43,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>decade</t>
-  </si>
-  <si>
-    <t>parallel</t>
-  </si>
-  <si>
-    <t>terrible</t>
+    <t>foreign</t>
   </si>
   <si>
     <t>terrifying</t>
@@ -58,148 +52,172 @@
     <t>scary</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>sad</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>boring</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>insane</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>inspiring</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>shook</t>
-  </si>
-  <si>
-    <t>revealed</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>across</t>
   </si>
   <si>
     <t>frightening</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>down</t>
+    <t>long</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>learned</t>
+  </si>
+  <si>
+    <t>released</t>
   </si>
   <si>
     <t>ho</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>mit</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>soon</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>–</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>few</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>civil</t>
   </si>
   <si>
     <t>guilty</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>brain</t>
+    <t>news</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>dumb</t>
   </si>
   <si>
     <t>feels</t>
@@ -208,478 +226,451 @@
     <t>days</t>
   </si>
   <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>consequences</t>
+    <t>afraid</t>
   </si>
   <si>
     <t>past</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>generation</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>single</t>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>blowing</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>shows</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>app</t>
   </si>
   <si>
     <t>algorithms</t>
   </si>
   <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>ha</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>going</t>
   </si>
   <si>
     <t>truth</t>
   </si>
   <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>drugs</t>
-  </si>
-  <si>
     <t>faster</t>
   </si>
   <si>
+    <t>not</t>
+  </si>
+  <si>
     <t>times</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>will</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
   </si>
   <si>
     <t>software</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>ve</t>
-  </si>
-  <si>
-    <t>industries</t>
-  </si>
-  <si>
-    <t>customers</t>
+    <t>know</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>people</t>
   </si>
   <si>
     <t>this</t>
   </si>
   <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>not</t>
+    <t>with</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>we</t>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>but</t>
+    <t>’</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>it</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>pursuing</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>wonder</t>
+  </si>
+  <si>
+    <t>discussion</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>wondered</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>critics</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>polar</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
     <t>"</t>
   </si>
   <si>
-    <t>’</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
+    <t>that</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>discussion</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>isn</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>wo</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>feed</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>polar</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>posting</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>aware</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>just</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>watched</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q127"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1127,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1156,13 +1147,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1174,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K4">
-        <v>0.8210526315789474</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L4">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M4">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1198,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1206,13 +1197,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1224,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K5">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1248,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1256,13 +1247,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.9848484848484849</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1274,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1298,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1306,13 +1297,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.8695652173913043</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C7">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1324,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K7">
-        <v>0.7894736842105263</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1348,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1356,13 +1347,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1374,31 +1365,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8">
-        <v>0.7297297297297297</v>
-      </c>
-      <c r="L8">
-        <v>27</v>
-      </c>
-      <c r="M8">
-        <v>27</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1406,13 +1397,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1427,16 +1418,16 @@
         <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1448,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1456,13 +1447,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.6595744680851063</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1474,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K10">
-        <v>0.7</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1498,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1527,16 +1518,16 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K11">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1548,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1556,13 +1547,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.5384615384615384</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1574,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K12">
         <v>0.6666666666666666</v>
@@ -1606,37 +1597,37 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.5384615384615384</v>
+        <v>0.5625</v>
       </c>
       <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>7</v>
       </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1648,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1656,13 +1647,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.5357142857142857</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1674,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K14">
         <v>0.6</v>
@@ -1706,13 +1697,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1724,19 +1715,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K15">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1748,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1756,13 +1747,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1774,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K16">
         <v>0.5</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1798,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1806,13 +1797,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.5238095238095238</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1824,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1848,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1859,10 +1850,10 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1874,19 +1865,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1898,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1909,10 +1900,10 @@
         <v>0.5</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1924,19 +1915,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K19">
-        <v>0.4615384615384616</v>
+        <v>0.4</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1948,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1956,38 +1947,38 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20">
+        <v>0.4</v>
+      </c>
+      <c r="L20">
         <v>6</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>6</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20">
-        <v>0.3793103448275862</v>
-      </c>
-      <c r="L20">
-        <v>11</v>
-      </c>
-      <c r="M20">
-        <v>11</v>
-      </c>
       <c r="N20">
         <v>0</v>
       </c>
@@ -1998,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2006,13 +1997,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2024,19 +2015,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K21">
-        <v>0.375</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2048,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2056,13 +2047,13 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2074,19 +2065,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="K22">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2098,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2106,13 +2097,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2124,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K23">
         <v>0.3333333333333333</v>
@@ -2156,13 +2147,13 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2174,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K24">
-        <v>0.32</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2198,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2206,13 +2197,13 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2224,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="K25">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>2</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2256,13 +2247,13 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.4782608695652174</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2274,19 +2265,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="K26">
-        <v>0.2857142857142857</v>
+        <v>0.3</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2298,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2306,13 +2297,13 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.4615384615384616</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2324,19 +2315,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K27">
-        <v>0.28125</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2348,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2356,13 +2347,13 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.4545454545454545</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2374,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K28">
-        <v>0.2666666666666667</v>
+        <v>0.28125</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2398,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2406,13 +2397,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.45</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2424,19 +2415,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K29">
-        <v>0.2615384615384616</v>
+        <v>0.28</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2448,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2456,13 +2447,13 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.4375</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2477,16 +2468,16 @@
         <v>9</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K30">
-        <v>0.25</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2498,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2506,13 +2497,13 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.4222222222222222</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2524,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K31">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -2548,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2556,13 +2547,13 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2574,13 +2565,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="K32">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2598,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2606,13 +2597,13 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2624,19 +2615,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K33">
-        <v>0.2</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2648,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2656,13 +2647,13 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.3846153846153846</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2674,19 +2665,19 @@
         <v>0</v>
       </c>
       <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="L34">
         <v>8</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K34">
-        <v>0.2</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
       <c r="M34">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2698,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2706,13 +2697,13 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.3636363636363636</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2724,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="K35">
-        <v>0.1875</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2748,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2756,13 +2747,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.3571428571428572</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2774,13 +2765,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="K36">
-        <v>0.1818181818181818</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L36">
         <v>2</v>
@@ -2798,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2806,13 +2797,13 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.3571428571428572</v>
+        <v>0.25</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2824,19 +2815,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K37">
-        <v>0.1818181818181818</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2848,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2856,13 +2847,13 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.3461538461538461</v>
+        <v>0.25</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2874,19 +2865,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K38">
-        <v>0.1818181818181818</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2898,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2906,13 +2897,13 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.3333333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2924,31 +2915,31 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K39">
+        <v>0.2</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>4</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K39">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="L39">
-        <v>11</v>
-      </c>
-      <c r="M39">
-        <v>11</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2956,63 +2947,63 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.3333333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K40">
+        <v>0.2</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>4</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>8</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K40">
-        <v>0.1707317073170732</v>
-      </c>
-      <c r="L40">
-        <v>7</v>
-      </c>
-      <c r="M40">
-        <v>7</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B41">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3024,19 +3015,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K41">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3048,21 +3039,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3125</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3077,16 +3068,16 @@
         <v>11</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K42">
-        <v>0.1538461538461539</v>
+        <v>0.2</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3098,21 +3089,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3124,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K43">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3148,21 +3139,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2857142857142857</v>
+        <v>0.1875</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3174,19 +3165,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K44">
-        <v>0.1333333333333333</v>
+        <v>0.1875</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3203,16 +3194,16 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2727272727272727</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3224,13 +3215,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="K45">
-        <v>0.1333333333333333</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -3248,21 +3239,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3274,39 +3265,39 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K46">
-        <v>0.1267605633802817</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>9</v>
-      </c>
-      <c r="M46">
-        <v>9</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3324,13 +3315,13 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="K47">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -3348,21 +3339,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3374,19 +3365,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="K48">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3398,21 +3389,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.25</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3424,19 +3415,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K49">
-        <v>0.1176470588235294</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3448,15 +3439,15 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2307692307692308</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -3474,19 +3465,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K50">
-        <v>0.1111111111111111</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3498,21 +3489,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2222222222222222</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3524,19 +3515,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="K51">
-        <v>0.1111111111111111</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3548,21 +3539,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3574,19 +3565,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="K52">
-        <v>0.1052631578947368</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3598,46 +3589,46 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K53">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="L53">
         <v>4</v>
       </c>
-      <c r="D53">
+      <c r="M53">
         <v>4</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>16</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K53">
-        <v>0.104735883424408</v>
-      </c>
-      <c r="L53">
-        <v>115</v>
-      </c>
-      <c r="M53">
-        <v>115</v>
-      </c>
       <c r="N53">
         <v>0</v>
       </c>
@@ -3648,15 +3639,15 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>983</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3674,19 +3665,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="K54">
-        <v>0.103448275862069</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3698,21 +3689,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3724,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="K55">
-        <v>0.09259259259259259</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3748,21 +3739,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1818181818181818</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3774,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="K56">
-        <v>0.08695652173913043</v>
+        <v>0.125</v>
       </c>
       <c r="L56">
         <v>2</v>
@@ -3798,21 +3789,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1818181818181818</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3824,19 +3815,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K57">
-        <v>0.08333333333333333</v>
+        <v>0.1120218579234973</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3848,15 +3839,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>11</v>
+        <v>975</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3874,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K58">
-        <v>0.08333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -3898,15 +3889,15 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3924,19 +3915,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K59">
-        <v>0.08196721311475409</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3948,46 +3939,46 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="C60">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>13</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>117</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K60">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="L60">
         <v>2</v>
       </c>
-      <c r="D60">
+      <c r="M60">
         <v>2</v>
       </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>10</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K60">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
       <c r="N60">
         <v>0</v>
       </c>
@@ -3998,15 +3989,15 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4024,13 +4015,13 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="K61">
-        <v>0.07142857142857142</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -4048,21 +4039,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1578947368421053</v>
+        <v>0.1</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4074,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K62">
-        <v>0.07142857142857142</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -4098,21 +4089,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1578947368421053</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4124,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="K63">
-        <v>0.07142857142857142</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -4148,21 +4139,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1578947368421053</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4174,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="K64">
-        <v>0.07142857142857142</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -4198,15 +4189,15 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1428571428571428</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4224,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="K65">
-        <v>0.05263157894736842</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -4248,21 +4239,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1428571428571428</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4274,19 +4265,19 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="K66">
-        <v>0.04761904761904762</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4298,46 +4289,46 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>23</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K67">
+        <v>0.04918032786885246</v>
+      </c>
+      <c r="L67">
         <v>3</v>
       </c>
-      <c r="D67">
+      <c r="M67">
         <v>3</v>
       </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>22</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K67">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
       <c r="N67">
         <v>0</v>
       </c>
@@ -4348,21 +4339,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1142857142857143</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4374,19 +4365,19 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K68">
-        <v>0.04166666666666666</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4398,15 +4389,15 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1111111111111111</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4424,10 +4415,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K69">
         <v>0.04</v>
@@ -4453,10 +4444,10 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1111111111111111</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4474,19 +4465,19 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K70">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4498,15 +4489,15 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1111111111111111</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4524,10 +4515,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K71">
         <v>0.03703703703703703</v>
@@ -4553,10 +4544,10 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1111111111111111</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4574,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K72">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4598,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4606,7 +4597,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1</v>
+        <v>0.0625</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4624,19 +4615,19 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K73">
-        <v>0.03478260869565217</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4648,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>111</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4656,13 +4647,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09523809523809523</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4674,13 +4665,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K74">
-        <v>0.03389830508474576</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="L74">
         <v>2</v>
@@ -4698,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4706,13 +4697,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09090909090909091</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4724,13 +4715,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K75">
-        <v>0.03225806451612903</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -4748,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4756,7 +4747,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.09090909090909091</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4774,13 +4765,13 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K76">
-        <v>0.0273972602739726</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="L76">
         <v>2</v>
@@ -4798,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>71</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4806,13 +4797,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08461538461538462</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C77">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4824,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="K77">
-        <v>0.02173913043478261</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -4848,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4856,7 +4847,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08333333333333333</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4874,13 +4865,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="K78">
-        <v>0.01052631578947368</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -4898,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4906,7 +4897,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4924,19 +4915,19 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="K79">
-        <v>0.01038961038961039</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4948,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>381</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -4956,13 +4947,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.08</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4974,19 +4965,19 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K80">
-        <v>0.006349206349206349</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="L80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4998,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>313</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -5006,13 +4997,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.07692307692307693</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5024,31 +5015,31 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="K81">
-        <v>0.005813953488372093</v>
+        <v>0.01038961038961039</v>
       </c>
       <c r="L81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N81">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O81">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>342</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -5056,7 +5047,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.07142857142857142</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5074,19 +5065,19 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K82">
-        <v>0.005050505050505051</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5098,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>197</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5106,13 +5097,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06666666666666667</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5124,19 +5115,19 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K83">
-        <v>0.004213483146067416</v>
+        <v>0.007067137809187279</v>
       </c>
       <c r="L83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5148,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>709</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -5156,7 +5147,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.06666666666666667</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -5174,31 +5165,31 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="K84">
-        <v>0.004171011470281543</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M84">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N84">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="O84">
-        <v>0.5700000000000001</v>
+        <v>1</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>955</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -5206,7 +5197,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.06666666666666667</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5224,13 +5215,13 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K85">
-        <v>0.003597122302158274</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -5248,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>277</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -5256,7 +5247,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.06666666666666667</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5274,19 +5265,19 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K86">
-        <v>0.00353356890459364</v>
+        <v>0.005420054200542005</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5298,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>282</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -5306,13 +5297,13 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0425531914893617</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5324,19 +5315,19 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K87">
-        <v>0.003472222222222222</v>
+        <v>0.004213483146067416</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5348,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>287</v>
+        <v>709</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5356,13 +5347,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04166666666666666</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5374,31 +5365,31 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="K88">
-        <v>0.003416856492027335</v>
+        <v>0.003420752565564424</v>
       </c>
       <c r="L88">
         <v>3</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O88">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5406,7 +5397,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.03846153846153846</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5424,31 +5415,31 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="K89">
-        <v>0.003151260504201681</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>949</v>
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -5456,13 +5447,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.03773584905660377</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5474,13 +5465,13 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="K90">
-        <v>0.002710027100271003</v>
+        <v>0.003174603174603175</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -5498,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>368</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -5506,13 +5497,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.03703703703703703</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5524,31 +5515,31 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="K91">
-        <v>0.002567394094993581</v>
+        <v>0.003169572107765452</v>
       </c>
       <c r="L91">
         <v>2</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O91">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>777</v>
+        <v>629</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -5556,13 +5547,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.03174603174603174</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5574,31 +5565,31 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K92">
-        <v>0.001915708812260536</v>
+        <v>0.003121748178980229</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M92">
         <v>4</v>
       </c>
       <c r="N92">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O92">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>1042</v>
+        <v>958</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -5606,7 +5597,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.03125</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5624,19 +5615,19 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K93">
-        <v>0.001584786053882726</v>
+        <v>0.002728512960436562</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5648,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>630</v>
+        <v>731</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -5656,7 +5647,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.02272727272727273</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5674,31 +5665,31 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K94">
-        <v>0.001508295625942685</v>
+        <v>0.002617801047120419</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N94">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O94">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>662</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -5706,13 +5697,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01941747572815534</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5724,31 +5715,31 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="K95">
-        <v>0.001366120218579235</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N95">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O95">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>731</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -5756,49 +5747,49 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.01754385964912281</v>
+        <v>0.01006711409395973</v>
       </c>
       <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>0.75</v>
+      </c>
+      <c r="F96">
+        <v>0.25</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>295</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K96">
+        <v>0.001912045889101338</v>
+      </c>
+      <c r="L96">
         <v>2</v>
       </c>
-      <c r="D96">
+      <c r="M96">
         <v>2</v>
       </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>112</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K96">
-        <v>0.001081081081081081</v>
-      </c>
-      <c r="L96">
-        <v>3</v>
-      </c>
-      <c r="M96">
-        <v>16</v>
-      </c>
       <c r="N96">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="O96">
-        <v>0.1899999999999999</v>
+        <v>1</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>2772</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -5806,7 +5797,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.01408450704225352</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5824,31 +5815,31 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="K97">
-        <v>0.001047120418848168</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L97">
         <v>1</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N97">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O97">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>954</v>
+        <v>549</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -5856,7 +5847,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.01408450704225352</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5874,31 +5865,31 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="K98">
-        <v>0.0009082652134423251</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L98">
         <v>1</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O98">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>1100</v>
+        <v>605</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -5906,7 +5897,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.0136986301369863</v>
+        <v>0.008</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5924,31 +5915,31 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="K99">
-        <v>0.0008726003490401396</v>
+        <v>0.001506024096385542</v>
       </c>
       <c r="L99">
         <v>1</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O99">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>1145</v>
+        <v>663</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -5956,7 +5947,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.01136363636363636</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5974,31 +5965,31 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="K100">
-        <v>0.0002547770700636942</v>
+        <v>0.0009082652134423251</v>
       </c>
       <c r="L100">
         <v>1</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N100">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O100">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>3924</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6006,7 +5997,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6024,7 +6015,31 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>99</v>
+        <v>144</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K101">
+        <v>0.000576036866359447</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>1735</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6032,13 +6047,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.009900990099009901</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6050,7 +6065,31 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>100</v>
+        <v>447</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K102">
+        <v>0.0003599712023038157</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>11</v>
+      </c>
+      <c r="N102">
+        <v>0.91</v>
+      </c>
+      <c r="O102">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P102" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>2777</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -6058,13 +6097,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.008888888888888889</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6076,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>446</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -6084,7 +6123,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.008695652173913044</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6102,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>114</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6110,13 +6149,13 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.008333333333333333</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6128,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6136,13 +6175,13 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.008086253369272238</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6154,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>368</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6162,7 +6201,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.008</v>
+        <v>0.003597122302158274</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6180,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>124</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6188,25 +6227,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.008</v>
+        <v>0.003588087549336204</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>124</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -6214,25 +6253,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.007633587786259542</v>
+        <v>0.003294892915980231</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>130</v>
+        <v>605</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -6240,7 +6279,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.0072992700729927</v>
+        <v>0.002695417789757413</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6258,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>136</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -6266,13 +6305,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.006944444444444444</v>
+        <v>0.002560819462227913</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6284,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>143</v>
+        <v>779</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -6292,13 +6331,13 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.006688963210702341</v>
+        <v>0.0022271714922049</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6310,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>297</v>
+        <v>448</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -6318,13 +6357,13 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.006578947368421052</v>
+        <v>0.002092050209205021</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6336,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>604</v>
+        <v>954</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -6344,25 +6383,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.006211180124223602</v>
+        <v>0.001142857142857143</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>160</v>
+        <v>874</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -6370,25 +6409,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.005025125628140704</v>
+        <v>0.001042752867570386</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>198</v>
+        <v>958</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -6396,25 +6435,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.00466786355475763</v>
+        <v>0.0008748906386701663</v>
       </c>
       <c r="C116">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>2772</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -6422,25 +6461,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.003759398496240601</v>
+        <v>0.0008741258741258741</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>265</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -6448,13 +6487,13 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.003367003367003367</v>
+        <v>0.0007637474541751527</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6466,241 +6505,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B119">
-        <v>0.003131524008350731</v>
-      </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-      <c r="D119">
-        <v>7</v>
-      </c>
-      <c r="E119">
-        <v>0.43</v>
-      </c>
-      <c r="F119">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B120">
-        <v>0.002915451895043732</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>3</v>
-      </c>
-      <c r="E120">
-        <v>0.33</v>
-      </c>
-      <c r="F120">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121">
-        <v>0.002567394094993581</v>
-      </c>
-      <c r="C121">
-        <v>2</v>
-      </c>
-      <c r="D121">
-        <v>4</v>
-      </c>
-      <c r="E121">
-        <v>0.5</v>
-      </c>
-      <c r="F121">
-        <v>0.5</v>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122">
-        <v>0.001915708812260536</v>
-      </c>
-      <c r="C122">
-        <v>2</v>
-      </c>
-      <c r="D122">
-        <v>4</v>
-      </c>
-      <c r="E122">
-        <v>0.5</v>
-      </c>
-      <c r="F122">
-        <v>0.5</v>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123">
-        <v>0.001508295625942685</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123">
-        <v>0.5</v>
-      </c>
-      <c r="F123">
-        <v>0.5</v>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B124">
-        <v>0.001366120218579235</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>2</v>
-      </c>
-      <c r="E124">
-        <v>0.5</v>
-      </c>
-      <c r="F124">
-        <v>0.5</v>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125">
-        <v>0.001047120418848168</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>2</v>
-      </c>
-      <c r="E125">
-        <v>0.5</v>
-      </c>
-      <c r="F125">
-        <v>0.5</v>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126">
-        <v>0.0008726003490401396</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-      <c r="E126">
-        <v>0.5</v>
-      </c>
-      <c r="F126">
-        <v>0.5</v>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127">
-        <v>0.0007639419404125286</v>
-      </c>
-      <c r="C127">
-        <v>3</v>
-      </c>
-      <c r="D127">
-        <v>4</v>
-      </c>
-      <c r="E127">
-        <v>0.75</v>
-      </c>
-      <c r="F127">
-        <v>0.25</v>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <v>3924</v>
+        <v>3925</v>
       </c>
     </row>
   </sheetData>
